--- a/source/web/web.sph.commercial-space/ruang.komersil.utility.ledger.xlsx
+++ b/source/web/web.sph.commercial-space/ruang.komersil.utility.ledger.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>NAMA</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                   LEJER PENYEWA RUANG PEJABAT/ KEDAI                                 </t>
+  </si>
+  <si>
+    <t>REBAT (RM)</t>
   </si>
 </sst>
 </file>
@@ -308,31 +311,31 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -641,8 +644,8 @@
   </sheetPr>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -652,18 +655,19 @@
     <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F2" s="2"/>
@@ -672,9 +676,9 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -684,9 +688,9 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -721,33 +725,33 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -774,31 +778,31 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -902,7 +906,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>17</v>
       </c>
@@ -916,9 +920,12 @@
         <v>13</v>
       </c>
       <c r="E30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="G30" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -932,6 +939,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="37"/>
+      <c r="G31" s="36">
+        <f>IF(ISBLANK((C31)),0,(E31-E31))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
@@ -943,6 +954,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="39"/>
+      <c r="G32" s="38">
+        <f>IF(ISBLANK((C32)),0,(G31+E32-D32))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
@@ -954,6 +969,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="39"/>
+      <c r="G33" s="38">
+        <f t="shared" ref="G33:G95" si="1">IF(ISBLANK((C33)),0,(G32+E33-D33))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
@@ -965,6 +984,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="27"/>
+      <c r="G34" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
@@ -976,7 +999,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="24"/>
-      <c r="G35"/>
+      <c r="G35" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34"/>
@@ -988,7 +1014,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36"/>
+      <c r="G36" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
@@ -1000,6 +1029,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="24"/>
+      <c r="G37" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="34"/>
@@ -1011,6 +1044,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="24"/>
+      <c r="G38" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
@@ -1022,6 +1059,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="24"/>
+      <c r="G39" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
@@ -1033,6 +1074,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="24"/>
+      <c r="G40" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
@@ -1044,6 +1089,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="27"/>
+      <c r="G41" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="34"/>
@@ -1055,6 +1104,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="27"/>
+      <c r="G42" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
@@ -1066,6 +1119,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="24"/>
+      <c r="G43" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
@@ -1077,6 +1134,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="24"/>
+      <c r="G44" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
@@ -1088,6 +1149,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="27"/>
+      <c r="G45" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="34"/>
@@ -1099,6 +1164,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="24"/>
+      <c r="G46" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
@@ -1110,6 +1179,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="24"/>
+      <c r="G47" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
@@ -1121,8 +1194,12 @@
         <v>0</v>
       </c>
       <c r="F48" s="27"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
       <c r="B49" s="43"/>
       <c r="C49" s="36"/>
@@ -1132,8 +1209,12 @@
         <v>0</v>
       </c>
       <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
       <c r="B50" s="43"/>
       <c r="C50" s="36"/>
@@ -1143,8 +1224,12 @@
         <v>0</v>
       </c>
       <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="34"/>
       <c r="B51" s="43"/>
       <c r="C51" s="36"/>
@@ -1154,8 +1239,12 @@
         <v>0</v>
       </c>
       <c r="F51" s="27"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="B52" s="43"/>
       <c r="C52" s="36"/>
@@ -1165,8 +1254,12 @@
         <v>0</v>
       </c>
       <c r="F52" s="24"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="34"/>
       <c r="B53" s="43"/>
       <c r="C53" s="36"/>
@@ -1176,8 +1269,12 @@
         <v>0</v>
       </c>
       <c r="F53" s="24"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="34"/>
       <c r="B54" s="43"/>
       <c r="C54" s="36"/>
@@ -1187,8 +1284,12 @@
         <v>0</v>
       </c>
       <c r="F54" s="27"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="34"/>
       <c r="B55" s="43"/>
       <c r="C55" s="36"/>
@@ -1198,8 +1299,12 @@
         <v>0</v>
       </c>
       <c r="F55" s="24"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
       <c r="B56" s="43"/>
       <c r="C56" s="36"/>
@@ -1209,8 +1314,12 @@
         <v>0</v>
       </c>
       <c r="F56" s="24"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="34"/>
       <c r="B57" s="43"/>
       <c r="C57" s="36"/>
@@ -1220,8 +1329,12 @@
         <v>0</v>
       </c>
       <c r="F57" s="24"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="34"/>
       <c r="B58" s="43"/>
       <c r="C58" s="36"/>
@@ -1231,8 +1344,12 @@
         <v>0</v>
       </c>
       <c r="F58" s="27"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="34"/>
       <c r="B59" s="43"/>
       <c r="C59" s="36"/>
@@ -1242,8 +1359,12 @@
         <v>0</v>
       </c>
       <c r="F59" s="24"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="34"/>
       <c r="B60" s="43"/>
       <c r="C60" s="36"/>
@@ -1253,8 +1374,12 @@
         <v>0</v>
       </c>
       <c r="F60" s="24"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="34"/>
       <c r="B61" s="43"/>
       <c r="C61" s="36"/>
@@ -1264,8 +1389,12 @@
         <v>0</v>
       </c>
       <c r="F61" s="24"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="34"/>
       <c r="B62" s="43"/>
       <c r="C62" s="36"/>
@@ -1275,8 +1404,12 @@
         <v>0</v>
       </c>
       <c r="F62" s="27"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="34"/>
       <c r="B63" s="43"/>
       <c r="C63" s="36"/>
@@ -1286,8 +1419,12 @@
         <v>0</v>
       </c>
       <c r="F63" s="24"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="34"/>
       <c r="B64" s="43"/>
       <c r="C64" s="36"/>
@@ -1297,8 +1434,12 @@
         <v>0</v>
       </c>
       <c r="F64" s="24"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="34"/>
       <c r="B65" s="43"/>
       <c r="C65" s="36"/>
@@ -1308,8 +1449,12 @@
         <v>0</v>
       </c>
       <c r="F65" s="24"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="34"/>
       <c r="B66" s="43"/>
       <c r="C66" s="36"/>
@@ -1319,8 +1464,12 @@
         <v>0</v>
       </c>
       <c r="F66" s="27"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="34"/>
       <c r="B67" s="43"/>
       <c r="C67" s="36"/>
@@ -1330,8 +1479,12 @@
         <v>0</v>
       </c>
       <c r="F67" s="24"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="34"/>
       <c r="B68" s="43"/>
       <c r="C68" s="36"/>
@@ -1341,8 +1494,12 @@
         <v>0</v>
       </c>
       <c r="F68" s="24"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="34"/>
       <c r="B69" s="43"/>
       <c r="C69" s="36"/>
@@ -1352,8 +1509,12 @@
         <v>0</v>
       </c>
       <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="34"/>
       <c r="B70" s="43"/>
       <c r="C70" s="36"/>
@@ -1363,8 +1524,12 @@
         <v>0</v>
       </c>
       <c r="F70" s="27"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="34"/>
       <c r="B71" s="43"/>
       <c r="C71" s="36"/>
@@ -1374,8 +1539,12 @@
         <v>0</v>
       </c>
       <c r="F71" s="24"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="34"/>
       <c r="B72" s="43"/>
       <c r="C72" s="36"/>
@@ -1385,8 +1554,12 @@
         <v>0</v>
       </c>
       <c r="F72" s="24"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="34"/>
       <c r="B73" s="43"/>
       <c r="C73" s="36"/>
@@ -1396,8 +1569,12 @@
         <v>0</v>
       </c>
       <c r="F73" s="24"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="34"/>
       <c r="B74" s="43"/>
       <c r="C74" s="36"/>
@@ -1407,8 +1584,12 @@
         <v>0</v>
       </c>
       <c r="F74" s="27"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="34"/>
       <c r="B75" s="43"/>
       <c r="C75" s="36"/>
@@ -1418,8 +1599,12 @@
         <v>0</v>
       </c>
       <c r="F75" s="24"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="34"/>
       <c r="B76" s="43"/>
       <c r="C76" s="36"/>
@@ -1429,8 +1614,12 @@
         <v>0</v>
       </c>
       <c r="F76" s="24"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="34"/>
       <c r="B77" s="43"/>
       <c r="C77" s="36"/>
@@ -1440,8 +1629,12 @@
         <v>0</v>
       </c>
       <c r="F77" s="24"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="34"/>
       <c r="B78" s="43"/>
       <c r="C78" s="36"/>
@@ -1451,8 +1644,12 @@
         <v>0</v>
       </c>
       <c r="F78" s="27"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="34"/>
       <c r="B79" s="43"/>
       <c r="C79" s="36"/>
@@ -1462,8 +1659,12 @@
         <v>0</v>
       </c>
       <c r="F79" s="24"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="34"/>
       <c r="B80" s="43"/>
       <c r="C80" s="36"/>
@@ -1473,8 +1674,12 @@
         <v>0</v>
       </c>
       <c r="F80" s="24"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="34"/>
       <c r="B81" s="43"/>
       <c r="C81" s="36"/>
@@ -1484,8 +1689,12 @@
         <v>0</v>
       </c>
       <c r="F81" s="24"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="34"/>
       <c r="B82" s="43"/>
       <c r="C82" s="36"/>
@@ -1495,8 +1704,12 @@
         <v>0</v>
       </c>
       <c r="F82" s="27"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="34"/>
       <c r="B83" s="43"/>
       <c r="C83" s="36"/>
@@ -1506,8 +1719,12 @@
         <v>0</v>
       </c>
       <c r="F83" s="24"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="34"/>
       <c r="B84" s="43"/>
       <c r="C84" s="36"/>
@@ -1517,8 +1734,12 @@
         <v>0</v>
       </c>
       <c r="F84" s="24"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="34"/>
       <c r="B85" s="43"/>
       <c r="C85" s="36"/>
@@ -1528,8 +1749,12 @@
         <v>0</v>
       </c>
       <c r="F85" s="24"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="34"/>
       <c r="B86" s="43"/>
       <c r="C86" s="36"/>
@@ -1539,8 +1764,12 @@
         <v>0</v>
       </c>
       <c r="F86" s="27"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="34"/>
       <c r="B87" s="43"/>
       <c r="C87" s="36"/>
@@ -1550,8 +1779,12 @@
         <v>0</v>
       </c>
       <c r="F87" s="24"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="34"/>
       <c r="B88" s="43"/>
       <c r="C88" s="36"/>
@@ -1561,8 +1794,12 @@
         <v>0</v>
       </c>
       <c r="F88" s="24"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="34"/>
       <c r="B89" s="43"/>
       <c r="C89" s="36"/>
@@ -1572,8 +1809,12 @@
         <v>0</v>
       </c>
       <c r="F89" s="24"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="34"/>
       <c r="B90" s="43"/>
       <c r="C90" s="36"/>
@@ -1583,8 +1824,12 @@
         <v>0</v>
       </c>
       <c r="F90" s="27"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="34"/>
       <c r="B91" s="43"/>
       <c r="C91" s="36"/>
@@ -1594,8 +1839,12 @@
         <v>0</v>
       </c>
       <c r="F91" s="24"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="34"/>
       <c r="B92" s="43"/>
       <c r="C92" s="36"/>
@@ -1605,8 +1854,12 @@
         <v>0</v>
       </c>
       <c r="F92" s="24"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="34"/>
       <c r="B93" s="43"/>
       <c r="C93" s="36"/>
@@ -1616,8 +1869,12 @@
         <v>0</v>
       </c>
       <c r="F93" s="24"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="34"/>
       <c r="B94" s="43"/>
       <c r="C94" s="36"/>
@@ -1627,8 +1884,12 @@
         <v>0</v>
       </c>
       <c r="F94" s="27"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="34"/>
       <c r="B95" s="43"/>
       <c r="C95" s="36"/>
@@ -1638,20 +1899,24 @@
         <v>0</v>
       </c>
       <c r="F95" s="24"/>
+      <c r="G95" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/source/web/web.sph.commercial-space/ruang.komersil.utility.ledger.xlsx
+++ b/source/web/web.sph.commercial-space/ruang.komersil.utility.ledger.xlsx
@@ -645,7 +645,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/source/web/web.sph.commercial-space/ruang.komersil.utility.ledger.xlsx
+++ b/source/web/web.sph.commercial-space/ruang.komersil.utility.ledger.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>NAMA</t>
   </si>
@@ -76,7 +76,16 @@
     <t xml:space="preserve">                                   LEJER PENYEWA RUANG PEJABAT/ KEDAI                                 </t>
   </si>
   <si>
-    <t>REBAT (RM)</t>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>DEBIT (RM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KREDIT (RM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAKI (RM)</t>
   </si>
 </sst>
 </file>
@@ -196,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -294,13 +303,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -311,6 +314,35 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -320,9 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -330,12 +359,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -642,16 +665,16 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
@@ -688,9 +711,9 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -725,33 +748,33 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -778,31 +801,31 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -905,29 +928,27 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E29" s="11"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>15</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
@@ -938,53 +959,50 @@
         <f>IF(ISBLANK((A31)),0,(C31-C31))</f>
         <v>0</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="36">
-        <f>IF(ISBLANK((C31)),0,(E31-E31))</f>
-        <v>0</v>
-      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <f>IF(ISBLANK((A32)),0,(E31+C32-B32))</f>
         <v>0</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="38">
+      <c r="F32" s="47"/>
+      <c r="G32" s="48">
         <f>IF(ISBLANK((C32)),0,(G31+E32-D32))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <f t="shared" ref="E33:E95" si="0">IF(ISBLANK((A33)),0,(E32+C33-B33))</f>
         <v>0</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="38">
+      <c r="F33" s="47"/>
+      <c r="G33" s="48">
         <f t="shared" ref="G33:G95" si="1">IF(ISBLANK((C33)),0,(G32+E33-D33))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
-      <c r="B34" s="41"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="38">
+      <c r="E34" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -994,929 +1012,957 @@
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="38">
+      <c r="E35" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="49"/>
+      <c r="G35" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="38">
+      <c r="E36" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
-      <c r="B37" s="43"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="38">
+      <c r="E37" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="34"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="38">
+      <c r="E38" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="49"/>
+      <c r="G38" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
-      <c r="B39" s="43"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="38">
+      <c r="E39" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="49"/>
+      <c r="G39" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
-      <c r="B40" s="43"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="38">
+      <c r="E40" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
-      <c r="B41" s="43"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="38">
+      <c r="E41" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="34"/>
-      <c r="B42" s="43"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="38">
+      <c r="E42" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
-      <c r="B43" s="43"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="38">
+      <c r="E43" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="34"/>
-      <c r="B44" s="43"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="38">
+      <c r="E44" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="38">
+      <c r="E45" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="31"/>
+      <c r="G45" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="34"/>
-      <c r="B46" s="43"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="38">
+      <c r="E46" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
-      <c r="B47" s="43"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="38">
+      <c r="E47" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
-      <c r="B48" s="43"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="38">
+      <c r="E48" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
-      <c r="B49" s="43"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="38">
+      <c r="E49" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="38">
+      <c r="E50" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="34"/>
-      <c r="B51" s="43"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="38">
+      <c r="E51" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
-      <c r="B52" s="43"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="38">
+      <c r="E52" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="34"/>
-      <c r="B53" s="43"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="38">
+      <c r="E53" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="34"/>
-      <c r="B54" s="43"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="38">
+      <c r="E54" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="34"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="38">
+      <c r="E55" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
-      <c r="B56" s="43"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="38">
+      <c r="E56" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="34"/>
-      <c r="B57" s="43"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="38">
+      <c r="E57" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="34"/>
-      <c r="B58" s="43"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="36"/>
       <c r="D58" s="36"/>
-      <c r="E58" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="38">
+      <c r="E58" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="31"/>
+      <c r="G58" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="34"/>
-      <c r="B59" s="43"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="36"/>
       <c r="D59" s="36"/>
-      <c r="E59" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="38">
+      <c r="E59" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="49"/>
+      <c r="G59" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="34"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="36"/>
       <c r="D60" s="36"/>
-      <c r="E60" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="38">
+      <c r="E60" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="49"/>
+      <c r="G60" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="34"/>
-      <c r="B61" s="43"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
-      <c r="E61" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="38">
+      <c r="E61" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="49"/>
+      <c r="G61" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="34"/>
-      <c r="B62" s="43"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
-      <c r="E62" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="38">
+      <c r="E62" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="31"/>
+      <c r="G62" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="34"/>
-      <c r="B63" s="43"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
-      <c r="E63" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="38">
+      <c r="E63" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="49"/>
+      <c r="G63" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="34"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
-      <c r="E64" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="38">
+      <c r="E64" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="49"/>
+      <c r="G64" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="34"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
-      <c r="E65" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="38">
+      <c r="E65" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="49"/>
+      <c r="G65" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="34"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="36"/>
       <c r="D66" s="36"/>
-      <c r="E66" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="38">
+      <c r="E66" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="31"/>
+      <c r="G66" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="34"/>
-      <c r="B67" s="43"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
-      <c r="E67" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="24"/>
-      <c r="G67" s="38">
+      <c r="E67" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="49"/>
+      <c r="G67" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="34"/>
-      <c r="B68" s="43"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="36"/>
       <c r="D68" s="36"/>
-      <c r="E68" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="38">
+      <c r="E68" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="49"/>
+      <c r="G68" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="34"/>
-      <c r="B69" s="43"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="36"/>
       <c r="D69" s="36"/>
-      <c r="E69" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="38">
+      <c r="E69" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="49"/>
+      <c r="G69" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="34"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
-      <c r="E70" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="38">
+      <c r="E70" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="34"/>
-      <c r="B71" s="43"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
-      <c r="E71" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="24"/>
-      <c r="G71" s="38">
+      <c r="E71" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="49"/>
+      <c r="G71" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="34"/>
-      <c r="B72" s="43"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="36"/>
       <c r="D72" s="36"/>
-      <c r="E72" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="38">
+      <c r="E72" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="34"/>
-      <c r="B73" s="43"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
-      <c r="E73" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="38">
+      <c r="E73" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="49"/>
+      <c r="G73" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="34"/>
-      <c r="B74" s="43"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
-      <c r="E74" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="38">
+      <c r="E74" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="31"/>
+      <c r="G74" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="34"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
-      <c r="E75" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="24"/>
-      <c r="G75" s="38">
+      <c r="E75" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="49"/>
+      <c r="G75" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="34"/>
-      <c r="B76" s="43"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="36"/>
       <c r="D76" s="36"/>
-      <c r="E76" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="38">
+      <c r="E76" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="49"/>
+      <c r="G76" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="34"/>
-      <c r="B77" s="43"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
-      <c r="E77" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="24"/>
-      <c r="G77" s="38">
+      <c r="E77" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="49"/>
+      <c r="G77" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="34"/>
-      <c r="B78" s="43"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
-      <c r="E78" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="38">
+      <c r="E78" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="31"/>
+      <c r="G78" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="34"/>
-      <c r="B79" s="43"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="36"/>
       <c r="D79" s="36"/>
-      <c r="E79" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="24"/>
-      <c r="G79" s="38">
+      <c r="E79" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="34"/>
-      <c r="B80" s="43"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
-      <c r="E80" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="24"/>
-      <c r="G80" s="38">
+      <c r="E80" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="49"/>
+      <c r="G80" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="34"/>
-      <c r="B81" s="43"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="36"/>
       <c r="D81" s="36"/>
-      <c r="E81" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="24"/>
-      <c r="G81" s="38">
+      <c r="E81" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="49"/>
+      <c r="G81" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="34"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="36"/>
       <c r="D82" s="36"/>
-      <c r="E82" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="38">
+      <c r="E82" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="31"/>
+      <c r="G82" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="34"/>
-      <c r="B83" s="43"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
-      <c r="E83" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="38">
+      <c r="E83" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="49"/>
+      <c r="G83" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="34"/>
-      <c r="B84" s="43"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="36"/>
       <c r="D84" s="36"/>
-      <c r="E84" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="38">
+      <c r="E84" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="49"/>
+      <c r="G84" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="34"/>
-      <c r="B85" s="43"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="36"/>
       <c r="D85" s="36"/>
-      <c r="E85" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="38">
+      <c r="E85" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="49"/>
+      <c r="G85" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="34"/>
-      <c r="B86" s="43"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
-      <c r="E86" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="38">
+      <c r="E86" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="31"/>
+      <c r="G86" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="34"/>
-      <c r="B87" s="43"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="36"/>
       <c r="D87" s="36"/>
-      <c r="E87" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="24"/>
-      <c r="G87" s="38">
+      <c r="E87" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="49"/>
+      <c r="G87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="34"/>
-      <c r="B88" s="43"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="36"/>
       <c r="D88" s="36"/>
-      <c r="E88" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="24"/>
-      <c r="G88" s="38">
+      <c r="E88" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="49"/>
+      <c r="G88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="34"/>
-      <c r="B89" s="43"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="36"/>
       <c r="D89" s="36"/>
-      <c r="E89" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="24"/>
-      <c r="G89" s="38">
+      <c r="E89" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="49"/>
+      <c r="G89" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="34"/>
-      <c r="B90" s="43"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="36"/>
       <c r="D90" s="36"/>
-      <c r="E90" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="38">
+      <c r="E90" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="31"/>
+      <c r="G90" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="34"/>
-      <c r="B91" s="43"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
-      <c r="E91" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="24"/>
-      <c r="G91" s="38">
+      <c r="E91" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="49"/>
+      <c r="G91" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="34"/>
-      <c r="B92" s="43"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
-      <c r="E92" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="24"/>
-      <c r="G92" s="38">
+      <c r="E92" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="49"/>
+      <c r="G92" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="34"/>
-      <c r="B93" s="43"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="36"/>
       <c r="D93" s="36"/>
-      <c r="E93" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="24"/>
-      <c r="G93" s="38">
+      <c r="E93" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="49"/>
+      <c r="G93" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="34"/>
-      <c r="B94" s="43"/>
+      <c r="B94" s="41"/>
       <c r="C94" s="36"/>
       <c r="D94" s="36"/>
-      <c r="E94" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="38">
+      <c r="E94" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="31"/>
+      <c r="G94" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="34"/>
-      <c r="B95" s="43"/>
+      <c r="B95" s="41"/>
       <c r="C95" s="36"/>
       <c r="D95" s="36"/>
-      <c r="E95" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="24"/>
-      <c r="G95" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="E95" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="49"/>
+      <c r="G95" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F96" s="31"/>
+      <c r="G96" s="42"/>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F97" s="31"/>
+      <c r="G97" s="42"/>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F98" s="31"/>
+      <c r="G98" s="42"/>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F99" s="31"/>
+      <c r="G99" s="42"/>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F100" s="31"/>
+      <c r="G100" s="42"/>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F101" s="31"/>
+      <c r="G101" s="42"/>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F102" s="31"/>
+      <c r="G102" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="1" header="0.5" footer="0.5"/>
